--- a/my_file (1).xlsx
+++ b/my_file (1).xlsx
@@ -1026,15 +1026,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₦&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₦&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₦&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₦&quot;#,##0.00"/>
@@ -1066,15 +1069,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0">
   <autoFilter ref="A1:I21"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Rank"/>
-    <tableColumn id="2" name="Actual  gross" dataDxfId="3"/>
-    <tableColumn id="3" name="Adjusted gross" dataDxfId="2"/>
+    <tableColumn id="1" name="Rank" dataDxfId="0"/>
+    <tableColumn id="2" name="Actual  gross" dataDxfId="1"/>
+    <tableColumn id="3" name="Adjusted gross" dataDxfId="4"/>
     <tableColumn id="4" name="Artist"/>
     <tableColumn id="5" name="Tour title"/>
     <tableColumn id="6" name="Tour Start Year"/>
     <tableColumn id="7" name="Tour End Year"/>
-    <tableColumn id="8" name="Shows" dataDxfId="1"/>
-    <tableColumn id="9" name="Average gross" dataDxfId="0"/>
+    <tableColumn id="8" name="Shows" dataDxfId="3"/>
+    <tableColumn id="9" name="Average gross" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2021,7 +2024,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,7 +2070,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2096,7 +2099,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2125,7 +2128,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2154,7 +2157,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2183,7 +2186,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2212,7 +2215,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2241,7 +2244,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2270,7 +2273,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2299,7 +2302,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2328,7 +2331,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2357,7 +2360,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2386,7 +2389,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2415,7 +2418,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2444,7 +2447,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2473,7 +2476,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2502,7 +2505,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2531,7 +2534,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2560,7 +2563,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2589,7 +2592,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2618,7 +2621,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2648,7 +2651,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
